--- a/src/main/resources/static/temp.xlsx
+++ b/src/main/resources/static/temp.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -69,18 +69,18 @@
   </si>
   <si>
     <t>所属标准（对应标准中文名）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>所属对象（对应对象中文名）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,12 +94,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -143,12 +137,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -209,7 +202,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -244,7 +237,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -421,7 +414,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -429,27 +422,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="1"/>
+    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A2" s="2"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A3" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -463,16 +450,17 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A2" sqref="A2:XFD92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="8.796875" style="1"/>
-    <col min="7" max="7" width="25.6484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="6" width="8.75" style="1" collapsed="1"/>
+    <col min="7" max="7" width="25.625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -491,7 +479,7 @@
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -506,18 +494,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="11" width="8.796875" style="1"/>
-    <col min="12" max="12" width="25.6484375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.796875" style="1"/>
+    <col min="1" max="11" width="8.75" style="1" collapsed="1"/>
+    <col min="12" max="12" width="25.625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="8.75" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -551,10 +539,10 @@
       <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
